--- a/Config/cmsIndexPageConfig.xlsx
+++ b/Config/cmsIndexPageConfig.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>配置方式</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>TestContractExaminePage</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>合同复核</t>
@@ -132,9 +135,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -153,6 +156,119 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -161,129 +277,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,13 +312,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,13 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,19 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,13 +444,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,13 +474,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,67 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,23 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,6 +561,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -589,17 +592,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -610,8 +602,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1113,7 +1116,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1192,10 +1195,10 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -1361,29 +1364,29 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4">
-      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
+      <formula1>"类名"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
+      <formula1>"路径"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
+      <formula1>"文件名"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
       <formula1>"方法名"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
-      <formula1>"路径"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
-      <formula1>"类名"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
-      <formula1>"文件名"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
       <formula1>"是否执行"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4">
+      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Config/cmsIndexPageConfig.xlsx
+++ b/Config/cmsIndexPageConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26445" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -157,12 +157,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -170,6 +207,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -177,39 +215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,36 +228,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,6 +239,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -269,24 +269,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +312,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -324,61 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,13 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,91 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,8 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,17 +545,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,22 +595,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,133 +638,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1364,8 +1364,11 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
-      <formula1>"类名"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4">
+      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
+      <formula1>"方法名"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
@@ -1376,17 +1379,14 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"文件名"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
-      <formula1>"方法名"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
+      <formula1>"类名"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
       <formula1>"是否执行"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4">
-      <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
